--- a/Documents/OPUS.xlsx
+++ b/Documents/OPUS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2131CE7A-76B2-44A1-A2B5-4259525830F6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664D085D-9C31-455A-8C34-CCD7B8F00858}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="11700" windowHeight="4620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>TestCase</t>
   </si>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t xml:space="preserve">11220 OLD QUARRY RD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPC-Sherman Retail Store
 </t>
   </si>
 </sst>
@@ -774,7 +778,7 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -830,6 +834,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1221,7 +1229,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1784,7 @@
       </c>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:24" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -1975,11 +1983,11 @@
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
+      <c r="B12" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>58</v>
@@ -2044,8 +2052,8 @@
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
+      <c r="B13" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>60</v>
@@ -2110,8 +2118,8 @@
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
+      <c r="B14" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>61</v>
@@ -2176,8 +2184,8 @@
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
+      <c r="B15" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>62</v>
@@ -2242,8 +2250,8 @@
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
+      <c r="B16" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>47</v>
